--- a/Wrangling_EDA/fileDetails.xlsx
+++ b/Wrangling_EDA/fileDetails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>File Name</t>
   </si>
@@ -80,6 +80,63 @@
 Exported data as books_SE_v5.parquet
 Columns=20
 Rows=2113033</t>
+  </si>
+  <si>
+    <t>goodreads_interactions_1.ipynb</t>
+  </si>
+  <si>
+    <t>goodreads_interactions_2.ipynb</t>
+  </si>
+  <si>
+    <t>goodreads_interactions_3.ipynb</t>
+  </si>
+  <si>
+    <t>user_id_map_1</t>
+  </si>
+  <si>
+    <t>Read Data from book_id_map.csv file
+Created a dictionary where book_id_csv is the key and the book_id is the value
+Exported the dictionary as csvid_to_bookid_mapper_v1.joblib</t>
+  </si>
+  <si>
+    <t>Read data from csvid_to_bookid_mapper_RE_v1.joblib file
+This file has all the books ids (book_id_csv and corresponding book_id)
+Read data from books_SE_v3.parquet file - Only book_id column
+This file has the required book ids only which we have filtered earlier for our search engine and required in our recommendation engine as well. We are not using this file explicitly. We are just having a look at it.</t>
+  </si>
+  <si>
+    <t>Read the data from goodreads_interactions.csv
+This file contains the details of book id and corresponding user interaction details but we have read only the book_id column because here the book_id is actually book_id_csv which we need to map into book_id using the mapping file we read earlier
+We have preserved the actual index as a separate column during the mapping
+Exported mapped dataframe as interaction_RE_v1.parquet
+Rows = 228648342
+Columns = 3</t>
+  </si>
+  <si>
+    <t>Read required_interaction_index_RE_v1.npy
+Exported the index information as numpy array from goodreads_interactions_2.ipynb but deleted the section of the script by mistake
+Reading goodreads_interactions.csv - "user_id","book_id","is_read","rating" columns and required_interaction_index_RE_v1.npy rows only
+Here book_id column is actually book_id_csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read data from interaction_RE_v1.parquet
+Reading data from books_SE_v3.parquet - Only book_id column
+Renaming the column from book_id to mapped_book_id
+Merging (inner joint) interaction_RE_v1.parquet and books_SE_v3.parquet on mapped_book_id column so that we only have the required records from the interaction file which is decided by books_SE_v3.parquet
+Reduction in records = 8722753
+Number of unique books = 2113028
+</t>
+  </si>
+  <si>
+    <t>Exported the filtered dataframe as filtered_interaction_RE_v1.parquet
+Rows = 219925589
+Columns = 3</t>
+  </si>
+  <si>
+    <t>Read csvid_to_bookid_mapper_RE_v1.joblib
+For mapping the book_id_csv to actual book_id
+We mapped goodreads_interactions.csv book ids
+Exported the dataframe as filtered_interaction_RE_v2.parquet</t>
   </si>
 </sst>
 </file>
@@ -122,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -131,6 +188,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,22 +479,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -442,7 +508,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -454,7 +520,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -468,7 +534,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -480,7 +546,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -488,6 +554,59 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
